--- a/icd_files/93203.xlsx
+++ b/icd_files/93203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89356E70-5FD7-4DF0-A5F2-98494D0C0850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D56CF-C388-4AC3-B654-9F7E64C5873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="325">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -399,9 +399,21 @@
     <t>08-01</t>
   </si>
   <si>
+    <t>08-02</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
     <t>08-04</t>
   </si>
   <si>
+    <t>08-05</t>
+  </si>
+  <si>
+    <t>08-06</t>
+  </si>
+  <si>
     <t>01-01</t>
   </si>
   <si>
@@ -429,30 +441,123 @@
     <t>GCS: Total</t>
   </si>
   <si>
-    <t>Insulin_x</t>
-  </si>
-  <si>
-    <t>Insulin_y</t>
+    <t>Amitriptyline</t>
+  </si>
+  <si>
+    <t>Insulin</t>
   </si>
   <si>
     <t>Diazepam</t>
   </si>
   <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Multivitamin IV</t>
+  </si>
+  <si>
+    <t>Creon 12</t>
+  </si>
+  <si>
+    <t>Quetiapine Fumarate</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t>Readi-Cat 2 (Barium Sulfate 2% Suspension)</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>TraMADOL (Ultram)</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>0 VIAL</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>14 mL</t>
+  </si>
+  <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>4 VIAL</t>
   </si>
   <si>
-    <t>5 TAB</t>
-  </si>
-  <si>
-    <t>5 VIAL</t>
-  </si>
-  <si>
     <t>08:32</t>
   </si>
   <si>
@@ -468,9 +573,66 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>150 TAB</t>
+  </si>
+  <si>
     <t>5-10 TAB</t>
   </si>
   <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>3 mL</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>500 CAP</t>
+  </si>
+  <si>
+    <t>900 BTL</t>
+  </si>
+  <si>
+    <t>10 mL</t>
+  </si>
+  <si>
+    <t>1-2 SYR</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>25 CAP</t>
+  </si>
+  <si>
+    <t>0.5-1 SYR</t>
+  </si>
+  <si>
+    <t>0.3 SYR</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
     <t>00:48</t>
   </si>
   <si>
@@ -489,6 +651,12 @@
     <t>20:14</t>
   </si>
   <si>
+    <t>0.4 SYR</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -501,6 +669,15 @@
     <t>20:27</t>
   </si>
   <si>
+    <t>4 CAP</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>00:43</t>
   </si>
   <si>
@@ -525,6 +702,15 @@
     <t>20:20</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>4 TAB</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -532,6 +718,9 @@
   </si>
   <si>
     <t>7 VIAL</t>
+  </si>
+  <si>
+    <t>4-8 TAB</t>
   </si>
   <si>
     <t>3 VIAL</t>
@@ -3473,7 +3662,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000000-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4147,7 +4336,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000001-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4821,7 +5010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000002-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5528,7 +5717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000003-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6163,7 +6352,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000004-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6618,7 +6807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000005-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7041,7 +7230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000006-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7464,7 +7653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000007-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7887,7 +8076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000008-2287-47BA-849F-83FF7CEF7900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8330,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B22856-D5F1-4F13-BD69-C9123DC48AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F46BBC7-48B2-479A-B012-DE0221DDBD04}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -8355,7 +8544,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8368,7 +8557,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8381,7 +8570,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -8394,7 +8583,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -8407,27 +8596,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -8455,7 +8644,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -8483,11 +8672,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -8510,7 +8699,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,7 +8736,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -8570,14 +8759,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -8600,14 +8789,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -8630,14 +8819,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8660,14 +8849,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8690,16 +8879,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8722,14 +8911,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8752,10 +8941,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8763,7 +8952,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8775,7 +8964,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8798,7 +8987,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8814,11 +9003,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8841,7 +9030,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -8859,7 +9048,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -8882,7 +9071,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -8901,7 +9090,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -8924,10 +9113,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -8945,7 +9134,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -8968,52 +9157,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -9036,53 +9225,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -9105,43 +9294,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -9149,7 +9338,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -9172,43 +9361,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -9216,7 +9405,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -9239,43 +9428,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -9283,7 +9472,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -9306,43 +9495,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -9350,7 +9539,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -9373,43 +9562,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -9417,7 +9606,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -9440,43 +9629,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -9484,7 +9673,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -9507,43 +9696,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -9551,7 +9740,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -9574,43 +9763,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -9618,7 +9807,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -9641,43 +9830,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9685,7 +9874,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9708,43 +9897,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9752,7 +9941,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9775,43 +9964,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9819,7 +10008,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9842,7 +10031,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9855,10 +10044,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -9866,7 +10055,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -9889,14 +10078,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -9911,7 +10100,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -9934,7 +10123,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -9954,7 +10143,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -9977,7 +10166,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9997,7 +10186,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -10020,7 +10209,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -10038,11 +10227,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -10065,14 +10254,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -10095,14 +10284,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -10125,14 +10314,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -10155,14 +10344,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -10185,14 +10374,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -10215,14 +10404,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -10245,10 +10434,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -10265,7 +10454,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -10288,7 +10477,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -10306,7 +10495,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -10329,7 +10518,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -10347,7 +10536,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -10370,14 +10559,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -10400,14 +10589,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -10430,24 +10619,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -10470,7 +10659,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -10479,7 +10668,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -10502,14 +10691,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -10517,7 +10706,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -10540,7 +10729,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -10549,7 +10738,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -10572,14 +10761,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -10587,7 +10776,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -10610,7 +10799,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -10619,7 +10808,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -10642,24 +10831,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10682,7 +10871,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10691,7 +10880,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10714,22 +10903,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10737,7 +10926,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10760,7 +10949,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10773,7 +10962,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10796,32 +10985,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10844,7 +11033,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10853,7 +11042,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10876,14 +11065,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -10891,7 +11080,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -10914,14 +11103,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -10944,12 +11133,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -10977,7 +11166,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -11004,13 +11193,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -11038,7 +11227,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -11150,7 +11339,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -11178,7 +11367,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -11206,7 +11395,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -13742,13 +13931,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AQ38"/>
+  <dimension ref="A30:CS60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -13756,7 +13945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
@@ -13779,519 +13968,2456 @@
         <v>122</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AP31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BS31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N32" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="R32" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="S32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="T32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="U32" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="W32" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="X32" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y32" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Z32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AA32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AB32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AE32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF32" t="s">
         <v>164</v>
       </c>
       <c r="AG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>218</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>225</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V33" t="s">
+        <v>179</v>
+      </c>
+      <c r="W33" t="s">
+        <v>179</v>
+      </c>
+      <c r="X33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V34" t="s">
+        <v>180</v>
+      </c>
+      <c r="W34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
         <v>165</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M37" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" t="s">
+        <v>165</v>
+      </c>
+      <c r="S37" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" t="s">
+        <v>174</v>
+      </c>
+      <c r="U37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>231</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>231</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>166</v>
       </c>
-      <c r="AI32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" t="s">
+        <v>166</v>
+      </c>
+      <c r="P38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" t="s">
+        <v>166</v>
+      </c>
+      <c r="S38" t="s">
+        <v>166</v>
+      </c>
+      <c r="T38" t="s">
+        <v>166</v>
+      </c>
+      <c r="U38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
         <v>167</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M39" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+      <c r="P39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>167</v>
+      </c>
+      <c r="R39" t="s">
+        <v>167</v>
+      </c>
+      <c r="S39" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" t="s">
+        <v>167</v>
+      </c>
+      <c r="U39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s">
+        <v>168</v>
+      </c>
+      <c r="P40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>168</v>
+      </c>
+      <c r="R40" t="s">
+        <v>175</v>
+      </c>
+      <c r="S40" t="s">
+        <v>168</v>
+      </c>
+      <c r="T40" t="s">
+        <v>168</v>
+      </c>
+      <c r="U40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>209</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>226</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" t="s">
+        <v>169</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>169</v>
+      </c>
+      <c r="R43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S43" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" t="s">
+        <v>169</v>
+      </c>
+      <c r="U43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" t="s">
+        <v>170</v>
+      </c>
+      <c r="P49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>170</v>
+      </c>
+      <c r="R49" t="s">
+        <v>170</v>
+      </c>
+      <c r="S49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T49" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>227</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AL32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" t="s">
-        <v>144</v>
-      </c>
-      <c r="N33" t="s">
-        <v>144</v>
-      </c>
-      <c r="O33" t="s">
-        <v>144</v>
-      </c>
-      <c r="P33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>144</v>
-      </c>
-      <c r="R33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S33" t="s">
-        <v>144</v>
-      </c>
-      <c r="U33" t="s">
-        <v>144</v>
-      </c>
-      <c r="V33" t="s">
-        <v>144</v>
-      </c>
-      <c r="W33" t="s">
-        <v>144</v>
-      </c>
-      <c r="X33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AK54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" t="s">
-        <v>145</v>
-      </c>
-      <c r="P34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>145</v>
-      </c>
-      <c r="R34" t="s">
-        <v>145</v>
-      </c>
-      <c r="S34" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" t="s">
-        <v>145</v>
-      </c>
-      <c r="V34" t="s">
-        <v>145</v>
-      </c>
-      <c r="W34" t="s">
-        <v>145</v>
-      </c>
-      <c r="X34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" t="s">
-        <v>139</v>
-      </c>
-      <c r="M36" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" t="s">
-        <v>148</v>
-      </c>
-      <c r="J38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" t="s">
-        <v>148</v>
-      </c>
-      <c r="M38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>141</v>
+      <c r="AM57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" t="s">
+        <v>171</v>
+      </c>
+      <c r="I58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" t="s">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s">
+        <v>171</v>
+      </c>
+      <c r="M58" t="s">
+        <v>171</v>
+      </c>
+      <c r="N58" t="s">
+        <v>171</v>
+      </c>
+      <c r="O58" t="s">
+        <v>171</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>171</v>
+      </c>
+      <c r="R58" t="s">
+        <v>171</v>
+      </c>
+      <c r="S58" t="s">
+        <v>171</v>
+      </c>
+      <c r="T58" t="s">
+        <v>171</v>
+      </c>
+      <c r="U58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" t="s">
+        <v>172</v>
+      </c>
+      <c r="L59" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s">
+        <v>172</v>
+      </c>
+      <c r="N59" t="s">
+        <v>172</v>
+      </c>
+      <c r="O59" t="s">
+        <v>172</v>
+      </c>
+      <c r="P59" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R59" t="s">
+        <v>172</v>
+      </c>
+      <c r="S59" t="s">
+        <v>172</v>
+      </c>
+      <c r="T59" t="s">
+        <v>172</v>
+      </c>
+      <c r="U59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" t="s">
+        <v>173</v>
+      </c>
+      <c r="K60" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" t="s">
+        <v>173</v>
+      </c>
+      <c r="M60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" t="s">
+        <v>173</v>
+      </c>
+      <c r="O60" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>173</v>
+      </c>
+      <c r="R60" t="s">
+        <v>173</v>
+      </c>
+      <c r="S60" t="s">
+        <v>173</v>
+      </c>
+      <c r="T60" t="s">
+        <v>173</v>
+      </c>
+      <c r="U60" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/93203.xlsx
+++ b/icd_files/93203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89356E70-5FD7-4DF0-A5F2-98494D0C0850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC154EF-924F-4FF1-9CF7-90D39DC7804D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="325">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -399,9 +399,21 @@
     <t>08-01</t>
   </si>
   <si>
+    <t>08-02</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
     <t>08-04</t>
   </si>
   <si>
+    <t>08-05</t>
+  </si>
+  <si>
+    <t>08-06</t>
+  </si>
+  <si>
     <t>01-01</t>
   </si>
   <si>
@@ -429,30 +441,123 @@
     <t>GCS: Total</t>
   </si>
   <si>
-    <t>Insulin_x</t>
-  </si>
-  <si>
-    <t>Insulin_y</t>
+    <t>Amitriptyline</t>
+  </si>
+  <si>
+    <t>Insulin</t>
   </si>
   <si>
     <t>Diazepam</t>
   </si>
   <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Multivitamin IV</t>
+  </si>
+  <si>
+    <t>Creon 12</t>
+  </si>
+  <si>
+    <t>Quetiapine Fumarate</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t>Readi-Cat 2 (Barium Sulfate 2% Suspension)</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>TraMADOL (Ultram)</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>0 VIAL</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>14 mL</t>
+  </si>
+  <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>4 VIAL</t>
   </si>
   <si>
-    <t>5 TAB</t>
-  </si>
-  <si>
-    <t>5 VIAL</t>
-  </si>
-  <si>
     <t>08:32</t>
   </si>
   <si>
@@ -468,9 +573,66 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>150 TAB</t>
+  </si>
+  <si>
     <t>5-10 TAB</t>
   </si>
   <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>3 mL</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>500 CAP</t>
+  </si>
+  <si>
+    <t>900 BTL</t>
+  </si>
+  <si>
+    <t>10 mL</t>
+  </si>
+  <si>
+    <t>1-2 SYR</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>25 CAP</t>
+  </si>
+  <si>
+    <t>0.5-1 SYR</t>
+  </si>
+  <si>
+    <t>0.3 SYR</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
     <t>00:48</t>
   </si>
   <si>
@@ -489,6 +651,12 @@
     <t>20:14</t>
   </si>
   <si>
+    <t>0.4 SYR</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -501,6 +669,15 @@
     <t>20:27</t>
   </si>
   <si>
+    <t>4 CAP</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>00:43</t>
   </si>
   <si>
@@ -525,6 +702,15 @@
     <t>20:20</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>4 TAB</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -532,6 +718,9 @@
   </si>
   <si>
     <t>7 VIAL</t>
+  </si>
+  <si>
+    <t>4-8 TAB</t>
   </si>
   <si>
     <t>3 VIAL</t>
@@ -3473,7 +3662,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000000-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4147,7 +4336,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000001-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4821,7 +5010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000002-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5528,7 +5717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000003-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6163,7 +6352,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000004-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6618,7 +6807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000005-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7041,7 +7230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000006-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7464,7 +7653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000007-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7887,7 +8076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E055-46A5-9061-D81D036E4485}"/>
+              <c16:uniqueId val="{00000008-C8D8-4702-A4A2-59BCA85C3B5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8330,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B22856-D5F1-4F13-BD69-C9123DC48AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE436EB-F443-4BCE-B641-B4B14CBF5AE9}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -8355,7 +8544,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8368,7 +8557,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8381,7 +8570,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -8394,7 +8583,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -8407,27 +8596,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -8455,7 +8644,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -8483,11 +8672,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -8510,7 +8699,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,7 +8736,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -8570,14 +8759,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -8600,14 +8789,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -8630,14 +8819,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8660,14 +8849,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8690,16 +8879,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8722,14 +8911,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8752,10 +8941,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8763,7 +8952,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8775,7 +8964,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8798,7 +8987,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8814,11 +9003,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8841,7 +9030,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -8859,7 +9048,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -8882,7 +9071,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -8901,7 +9090,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -8924,10 +9113,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -8945,7 +9134,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -8968,52 +9157,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -9036,53 +9225,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -9105,43 +9294,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -9149,7 +9338,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -9172,43 +9361,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -9216,7 +9405,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -9239,43 +9428,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -9283,7 +9472,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -9306,43 +9495,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -9350,7 +9539,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -9373,43 +9562,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -9417,7 +9606,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -9440,43 +9629,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -9484,7 +9673,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -9507,43 +9696,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -9551,7 +9740,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -9574,43 +9763,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -9618,7 +9807,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -9641,43 +9830,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9685,7 +9874,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9708,43 +9897,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9752,7 +9941,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9775,43 +9964,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9819,7 +10008,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9842,7 +10031,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9855,10 +10044,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -9866,7 +10055,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -9889,14 +10078,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -9911,7 +10100,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -9934,7 +10123,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -9954,7 +10143,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -9977,7 +10166,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9997,7 +10186,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -10020,7 +10209,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -10038,11 +10227,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -10065,14 +10254,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -10095,14 +10284,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -10125,14 +10314,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -10155,14 +10344,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -10185,14 +10374,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -10215,14 +10404,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -10245,10 +10434,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -10265,7 +10454,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -10288,7 +10477,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -10306,7 +10495,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -10329,7 +10518,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -10347,7 +10536,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -10370,14 +10559,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -10400,14 +10589,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -10430,24 +10619,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -10470,7 +10659,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -10479,7 +10668,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -10502,14 +10691,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -10517,7 +10706,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -10540,7 +10729,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -10549,7 +10738,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -10572,14 +10761,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -10587,7 +10776,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -10610,7 +10799,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -10619,7 +10808,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -10642,24 +10831,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10682,7 +10871,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10691,7 +10880,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10714,22 +10903,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10737,7 +10926,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10760,7 +10949,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10773,7 +10962,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10796,32 +10985,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10844,7 +11033,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10853,7 +11042,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10876,14 +11065,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -10891,7 +11080,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -10914,14 +11103,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -10944,12 +11133,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -10977,7 +11166,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -11004,13 +11193,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -11038,7 +11227,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -11150,7 +11339,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -11178,7 +11367,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -11206,7 +11395,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -13742,13 +13931,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AQ38"/>
+  <dimension ref="A30:CS60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -13756,7 +13945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
@@ -13779,519 +13968,2456 @@
         <v>122</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AP31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BS31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N32" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="R32" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="S32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="T32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="U32" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="W32" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="X32" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y32" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Z32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AA32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AB32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AE32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF32" t="s">
         <v>164</v>
       </c>
       <c r="AG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>218</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>225</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V33" t="s">
+        <v>179</v>
+      </c>
+      <c r="W33" t="s">
+        <v>179</v>
+      </c>
+      <c r="X33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>219</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V34" t="s">
+        <v>180</v>
+      </c>
+      <c r="W34" t="s">
+        <v>180</v>
+      </c>
+      <c r="X34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>180</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
         <v>165</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M37" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" t="s">
+        <v>165</v>
+      </c>
+      <c r="S37" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" t="s">
+        <v>174</v>
+      </c>
+      <c r="U37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>231</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>231</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>176</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>166</v>
       </c>
-      <c r="AI32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" t="s">
+        <v>166</v>
+      </c>
+      <c r="P38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" t="s">
+        <v>166</v>
+      </c>
+      <c r="S38" t="s">
+        <v>166</v>
+      </c>
+      <c r="T38" t="s">
+        <v>166</v>
+      </c>
+      <c r="U38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
         <v>167</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M39" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+      <c r="P39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>167</v>
+      </c>
+      <c r="R39" t="s">
+        <v>167</v>
+      </c>
+      <c r="S39" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" t="s">
+        <v>167</v>
+      </c>
+      <c r="U39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s">
+        <v>168</v>
+      </c>
+      <c r="P40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>168</v>
+      </c>
+      <c r="R40" t="s">
+        <v>175</v>
+      </c>
+      <c r="S40" t="s">
+        <v>168</v>
+      </c>
+      <c r="T40" t="s">
+        <v>168</v>
+      </c>
+      <c r="U40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>209</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>226</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>228</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>232</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" t="s">
+        <v>169</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>169</v>
+      </c>
+      <c r="R43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S43" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" t="s">
+        <v>169</v>
+      </c>
+      <c r="U43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" t="s">
+        <v>170</v>
+      </c>
+      <c r="P49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>170</v>
+      </c>
+      <c r="R49" t="s">
+        <v>170</v>
+      </c>
+      <c r="S49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T49" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>227</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AL32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" t="s">
-        <v>144</v>
-      </c>
-      <c r="N33" t="s">
-        <v>144</v>
-      </c>
-      <c r="O33" t="s">
-        <v>144</v>
-      </c>
-      <c r="P33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>144</v>
-      </c>
-      <c r="R33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S33" t="s">
-        <v>144</v>
-      </c>
-      <c r="U33" t="s">
-        <v>144</v>
-      </c>
-      <c r="V33" t="s">
-        <v>144</v>
-      </c>
-      <c r="W33" t="s">
-        <v>144</v>
-      </c>
-      <c r="X33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AK54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" t="s">
-        <v>145</v>
-      </c>
-      <c r="P34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>145</v>
-      </c>
-      <c r="R34" t="s">
-        <v>145</v>
-      </c>
-      <c r="S34" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" t="s">
-        <v>145</v>
-      </c>
-      <c r="V34" t="s">
-        <v>145</v>
-      </c>
-      <c r="W34" t="s">
-        <v>145</v>
-      </c>
-      <c r="X34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" t="s">
-        <v>139</v>
-      </c>
-      <c r="M36" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" t="s">
-        <v>148</v>
-      </c>
-      <c r="J38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" t="s">
-        <v>148</v>
-      </c>
-      <c r="M38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>141</v>
+      <c r="AM57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" t="s">
+        <v>171</v>
+      </c>
+      <c r="I58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" t="s">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s">
+        <v>171</v>
+      </c>
+      <c r="M58" t="s">
+        <v>171</v>
+      </c>
+      <c r="N58" t="s">
+        <v>171</v>
+      </c>
+      <c r="O58" t="s">
+        <v>171</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>171</v>
+      </c>
+      <c r="R58" t="s">
+        <v>171</v>
+      </c>
+      <c r="S58" t="s">
+        <v>171</v>
+      </c>
+      <c r="T58" t="s">
+        <v>171</v>
+      </c>
+      <c r="U58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" t="s">
+        <v>172</v>
+      </c>
+      <c r="L59" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s">
+        <v>172</v>
+      </c>
+      <c r="N59" t="s">
+        <v>172</v>
+      </c>
+      <c r="O59" t="s">
+        <v>172</v>
+      </c>
+      <c r="P59" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R59" t="s">
+        <v>172</v>
+      </c>
+      <c r="S59" t="s">
+        <v>172</v>
+      </c>
+      <c r="T59" t="s">
+        <v>172</v>
+      </c>
+      <c r="U59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" t="s">
+        <v>173</v>
+      </c>
+      <c r="K60" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" t="s">
+        <v>173</v>
+      </c>
+      <c r="M60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" t="s">
+        <v>173</v>
+      </c>
+      <c r="O60" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>173</v>
+      </c>
+      <c r="R60" t="s">
+        <v>173</v>
+      </c>
+      <c r="S60" t="s">
+        <v>173</v>
+      </c>
+      <c r="T60" t="s">
+        <v>173</v>
+      </c>
+      <c r="U60" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
